--- a/data_year/zb/综合/企业法人单位数/按登记注册类型分企业法人单位数.xlsx
+++ b/data_year/zb/综合/企业法人单位数/按登记注册类型分企业法人单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,37 +617,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8208273</v>
+        <v>8517893</v>
       </c>
       <c r="C5" t="n">
-        <v>8005884</v>
+        <v>8314230</v>
       </c>
       <c r="D5" t="n">
-        <v>113254</v>
+        <v>117150</v>
       </c>
       <c r="E5" t="n">
-        <v>105834</v>
+        <v>106387</v>
       </c>
       <c r="F5" t="n">
-        <v>1494395</v>
+        <v>1510930</v>
       </c>
       <c r="G5" t="n">
-        <v>96555</v>
+        <v>97276</v>
       </c>
       <c r="H5" t="n">
-        <v>5603917</v>
+        <v>5738666</v>
       </c>
       <c r="I5" t="n">
-        <v>19725</v>
+        <v>20106</v>
       </c>
       <c r="J5" t="n">
-        <v>64680</v>
+        <v>65950</v>
       </c>
       <c r="K5" t="n">
-        <v>123370</v>
+        <v>125325</v>
       </c>
       <c r="L5" t="n">
-        <v>130516</v>
+        <v>134013</v>
       </c>
     </row>
     <row r="6">
@@ -888,6 +888,46 @@
       </c>
       <c r="L11" t="n">
         <v>106926</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>28665212</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28383434</v>
+      </c>
+      <c r="D12" t="n">
+        <v>78357</v>
+      </c>
+      <c r="E12" t="n">
+        <v>135203</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1711337</v>
+      </c>
+      <c r="G12" t="n">
+        <v>146575</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26288321</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5631</v>
+      </c>
+      <c r="J12" t="n">
+        <v>31729</v>
+      </c>
+      <c r="K12" t="n">
+        <v>106993</v>
+      </c>
+      <c r="L12" t="n">
+        <v>103534</v>
       </c>
     </row>
   </sheetData>
